--- a/SMA.xlsx
+++ b/SMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korzh\Projects\SMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2310D5E7-095B-494D-A4D5-DE06BBAD9FCA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAABFEBF-2C5B-44DC-88D2-3BFBEC7EC39A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{E4B8AF9E-2C11-4E57-84B3-7FB0D4177DA6}"/>
   </bookViews>
@@ -182,22 +182,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2639288.25</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2652308.75</c:v>
+                  <c:v>24937656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2653505.25</c:v>
+                  <c:v>24875622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2646202.75</c:v>
+                  <c:v>25125628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2539166.75</c:v>
+                  <c:v>25316456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2572347.25</c:v>
+                  <c:v>25062656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,22 +282,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2628604.5</c:v>
+                  <c:v>24937656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2619378.25</c:v>
+                  <c:v>25062656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2575660</c:v>
+                  <c:v>25062656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2615815.25</c:v>
+                  <c:v>25062656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2513383.75</c:v>
+                  <c:v>24213074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2531197</c:v>
+                  <c:v>24937656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1559,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2639288.25</v>
+        <v>25000000</v>
       </c>
       <c r="C2">
-        <v>2628604.5</v>
+        <v>24937656</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2652308.75</v>
+        <v>24937656</v>
       </c>
       <c r="C3">
-        <v>2619378.25</v>
+        <v>25062656</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>2653505.25</v>
+        <v>24875622</v>
       </c>
       <c r="C4">
-        <v>2575660</v>
+        <v>25062656</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,10 +1592,10 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>2646202.75</v>
+        <v>25125628</v>
       </c>
       <c r="C5">
-        <v>2615815.25</v>
+        <v>25062656</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,10 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>2539166.75</v>
+        <v>25316456</v>
       </c>
       <c r="C6">
-        <v>2513383.75</v>
+        <v>24213074</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1614,10 @@
         <v>128</v>
       </c>
       <c r="B7">
-        <v>2572347.25</v>
+        <v>25062656</v>
       </c>
       <c r="C7">
-        <v>2531197</v>
+        <v>24937656</v>
       </c>
     </row>
   </sheetData>
